--- a/ZohoCRM/testdata/leadsdata.xlsx
+++ b/ZohoCRM/testdata/leadsdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIKHIL\git\ZohoCRM\ZohoCRM\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219AC94A-AA0D-4CD8-9614-7A1AE4B0976C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B7E5DB-2541-4442-81ED-16BE63D991CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Lastname</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>Lauras</t>
+  </si>
+  <si>
+    <t>NavtabLink</t>
+  </si>
+  <si>
+    <t>Leads</t>
+  </si>
+  <si>
+    <t>EditCompanyName</t>
+  </si>
+  <si>
+    <t>Delliote</t>
+  </si>
+  <si>
+    <t>CloneLastName</t>
+  </si>
+  <si>
+    <t>Kulkarni</t>
   </si>
 </sst>
 </file>
@@ -386,32 +404,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
